--- a/target/test-classes/TestData/FlipkartTestData.xlsx
+++ b/target/test-classes/TestData/FlipkartTestData.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="8">
   <si>
     <t>SearchText</t>
   </si>

--- a/target/test-classes/TestData/FlipkartTestData.xlsx
+++ b/target/test-classes/TestData/FlipkartTestData.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="8">
   <si>
     <t>SearchText</t>
   </si>
